--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0430（0429のデータ）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0501（0430のデータ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="1"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1599</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1627</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6767" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6884" uniqueCount="94">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -343,6 +343,16 @@
   </si>
   <si>
     <t>就学児</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡退院</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイイン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -735,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -759,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>623</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -767,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -775,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -783,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -791,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1597</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -812,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -820,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -828,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -836,7 +846,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -844,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>623</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -852,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1597</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -860,7 +870,7 @@
         <v>85</v>
       </c>
       <c r="B20">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -868,7 +878,7 @@
         <v>86</v>
       </c>
       <c r="B21">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -876,7 +886,7 @@
         <v>87</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -888,9 +898,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1599"/>
+  <dimension ref="A1:H1627"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -901,7 +911,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -1372,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2412,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -2646,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3374,7 +3384,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -3400,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -5298,7 +5308,7 @@
         <v>13</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -6780,7 +6790,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -7430,7 +7440,7 @@
         <v>12</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.4">
@@ -7482,7 +7492,7 @@
         <v>12</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
@@ -7534,7 +7544,7 @@
         <v>12</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.4">
@@ -8210,7 +8220,7 @@
         <v>10</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.4">
@@ -8756,7 +8766,7 @@
         <v>13</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -8782,7 +8792,7 @@
         <v>13</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -10368,7 +10378,7 @@
         <v>13</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.4">
@@ -11304,7 +11314,7 @@
         <v>13</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.4">
@@ -11512,7 +11522,7 @@
         <v>10</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12838,7 +12848,7 @@
         <v>10</v>
       </c>
       <c r="H460" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.4">
@@ -13280,7 +13290,7 @@
         <v>13</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.4">
@@ -13488,7 +13498,7 @@
         <v>10</v>
       </c>
       <c r="H485" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.4">
@@ -14658,7 +14668,7 @@
         <v>10</v>
       </c>
       <c r="H530" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.4">
@@ -14684,7 +14694,7 @@
         <v>10</v>
       </c>
       <c r="H531" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.4">
@@ -15334,7 +15344,7 @@
         <v>13</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.4">
@@ -15776,7 +15786,7 @@
         <v>10</v>
       </c>
       <c r="H573" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.4">
@@ -15854,7 +15864,7 @@
         <v>13</v>
       </c>
       <c r="H576" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.4">
@@ -16111,10 +16121,10 @@
         <v>43924</v>
       </c>
       <c r="G586" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H586" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.4">
@@ -16296,7 +16306,7 @@
         <v>10</v>
       </c>
       <c r="H593" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.4">
@@ -16660,7 +16670,7 @@
         <v>10</v>
       </c>
       <c r="H607" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.4">
@@ -17648,7 +17658,7 @@
         <v>13</v>
       </c>
       <c r="H645" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.4">
@@ -17934,7 +17944,7 @@
         <v>13</v>
       </c>
       <c r="H656" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.4">
@@ -18220,7 +18230,7 @@
         <v>10</v>
       </c>
       <c r="H667" s="7" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.4">
@@ -18506,7 +18516,7 @@
         <v>10</v>
       </c>
       <c r="H678" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.4">
@@ -18896,7 +18906,7 @@
         <v>46</v>
       </c>
       <c r="H693" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.4">
@@ -19208,7 +19218,7 @@
         <v>10</v>
       </c>
       <c r="H705" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.4">
@@ -19260,7 +19270,7 @@
         <v>13</v>
       </c>
       <c r="H707" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.4">
@@ -19468,7 +19478,7 @@
         <v>10</v>
       </c>
       <c r="H715" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.4">
@@ -19702,7 +19712,7 @@
         <v>10</v>
       </c>
       <c r="H724" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.4">
@@ -20352,7 +20362,7 @@
         <v>13</v>
       </c>
       <c r="H749" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.4">
@@ -20456,7 +20466,7 @@
         <v>13</v>
       </c>
       <c r="H753" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.4">
@@ -20976,7 +20986,7 @@
         <v>10</v>
       </c>
       <c r="H773" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.4">
@@ -22614,7 +22624,7 @@
         <v>10</v>
       </c>
       <c r="H836" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.4">
@@ -23108,7 +23118,7 @@
         <v>13</v>
       </c>
       <c r="H855" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.4">
@@ -23654,7 +23664,7 @@
         <v>13</v>
       </c>
       <c r="H876" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.4">
@@ -23729,7 +23739,7 @@
         <v>76</v>
       </c>
       <c r="G879" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H879" s="7" t="s">
         <v>3</v>
@@ -23992,7 +24002,7 @@
         <v>13</v>
       </c>
       <c r="H889" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.4">
@@ -24278,7 +24288,7 @@
         <v>10</v>
       </c>
       <c r="H900" s="7" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.4">
@@ -24460,7 +24470,7 @@
         <v>13</v>
       </c>
       <c r="H907" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.4">
@@ -24486,7 +24496,7 @@
         <v>10</v>
       </c>
       <c r="H908" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.4">
@@ -26202,7 +26212,7 @@
         <v>10</v>
       </c>
       <c r="H974" s="7" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="975" spans="1:8" x14ac:dyDescent="0.4">
@@ -26670,7 +26680,7 @@
         <v>13</v>
       </c>
       <c r="H992" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.4">
@@ -26982,7 +26992,7 @@
         <v>10</v>
       </c>
       <c r="H1004" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.4">
@@ -27008,7 +27018,7 @@
         <v>10</v>
       </c>
       <c r="H1005" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.4">
@@ -27501,8 +27511,8 @@
       <c r="G1024" t="s">
         <v>10</v>
       </c>
-      <c r="H1024" s="7">
-        <v>0</v>
+      <c r="H1024" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.4">
@@ -27606,7 +27616,7 @@
         <v>13</v>
       </c>
       <c r="H1028" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.4">
@@ -27866,7 +27876,7 @@
         <v>13</v>
       </c>
       <c r="H1038" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.4">
@@ -30151,10 +30161,10 @@
         <v>46</v>
       </c>
       <c r="G1126" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H1126" s="7" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.4">
@@ -30570,7 +30580,7 @@
         <v>13</v>
       </c>
       <c r="H1142" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.4">
@@ -30674,7 +30684,7 @@
         <v>13</v>
       </c>
       <c r="H1146" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.4">
@@ -30775,10 +30785,10 @@
         <v>46</v>
       </c>
       <c r="G1150" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H1150" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.4">
@@ -31324,7 +31334,7 @@
         <v>13</v>
       </c>
       <c r="H1171" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.4">
@@ -31480,7 +31490,7 @@
         <v>13</v>
       </c>
       <c r="H1177" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.4">
@@ -31532,7 +31542,7 @@
         <v>10</v>
       </c>
       <c r="H1179" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1180" spans="1:8" x14ac:dyDescent="0.4">
@@ -31558,7 +31568,7 @@
         <v>46</v>
       </c>
       <c r="H1180" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1181" spans="1:8" x14ac:dyDescent="0.4">
@@ -31610,7 +31620,7 @@
         <v>10</v>
       </c>
       <c r="H1182" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1183" spans="1:8" x14ac:dyDescent="0.4">
@@ -31948,7 +31958,7 @@
         <v>46</v>
       </c>
       <c r="H1195" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1196" spans="1:8" x14ac:dyDescent="0.4">
@@ -32390,7 +32400,7 @@
         <v>13</v>
       </c>
       <c r="H1212" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.4">
@@ -32546,7 +32556,7 @@
         <v>13</v>
       </c>
       <c r="H1218" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.4">
@@ -33144,7 +33154,7 @@
         <v>46</v>
       </c>
       <c r="H1241" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1242" spans="1:8" x14ac:dyDescent="0.4">
@@ -33560,7 +33570,7 @@
         <v>10</v>
       </c>
       <c r="H1257" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1258" spans="1:8" x14ac:dyDescent="0.4">
@@ -34340,7 +34350,7 @@
         <v>10</v>
       </c>
       <c r="H1287" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1288" spans="1:8" x14ac:dyDescent="0.4">
@@ -34366,7 +34376,7 @@
         <v>13</v>
       </c>
       <c r="H1288" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.4">
@@ -34496,7 +34506,7 @@
         <v>10</v>
       </c>
       <c r="H1293" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1294" spans="1:8" x14ac:dyDescent="0.4">
@@ -34678,7 +34688,7 @@
         <v>10</v>
       </c>
       <c r="H1300" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1301" spans="1:8" x14ac:dyDescent="0.4">
@@ -34753,10 +34763,10 @@
         <v>46</v>
       </c>
       <c r="G1303" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1303" s="7" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.4">
@@ -34782,7 +34792,7 @@
         <v>10</v>
       </c>
       <c r="H1304" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1305" spans="1:8" x14ac:dyDescent="0.4">
@@ -34990,7 +35000,7 @@
         <v>46</v>
       </c>
       <c r="H1312" s="7" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1313" spans="1:8" x14ac:dyDescent="0.4">
@@ -35250,7 +35260,7 @@
         <v>46</v>
       </c>
       <c r="H1322" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1323" spans="1:8" x14ac:dyDescent="0.4">
@@ -36654,7 +36664,7 @@
         <v>10</v>
       </c>
       <c r="H1376" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1377" spans="1:8" x14ac:dyDescent="0.4">
@@ -37174,7 +37184,7 @@
         <v>10</v>
       </c>
       <c r="H1396" s="7" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1397" spans="1:8" x14ac:dyDescent="0.4">
@@ -37356,7 +37366,7 @@
         <v>10</v>
       </c>
       <c r="H1403" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1404" spans="1:8" x14ac:dyDescent="0.4">
@@ -37746,7 +37756,7 @@
         <v>13</v>
       </c>
       <c r="H1418" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.4">
@@ -38682,7 +38692,7 @@
         <v>13</v>
       </c>
       <c r="H1454" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.4">
@@ -39436,7 +39446,7 @@
         <v>13</v>
       </c>
       <c r="H1483" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.4">
@@ -39566,7 +39576,7 @@
         <v>13</v>
       </c>
       <c r="H1488" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.4">
@@ -39592,7 +39602,7 @@
         <v>10</v>
       </c>
       <c r="H1489" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1490" spans="1:8" x14ac:dyDescent="0.4">
@@ -39878,7 +39888,7 @@
         <v>10</v>
       </c>
       <c r="H1500" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1501" spans="1:8" x14ac:dyDescent="0.4">
@@ -39982,7 +39992,7 @@
         <v>13</v>
       </c>
       <c r="H1504" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.4">
@@ -40034,7 +40044,7 @@
         <v>10</v>
       </c>
       <c r="H1506" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1507" spans="1:8" x14ac:dyDescent="0.4">
@@ -40060,7 +40070,7 @@
         <v>10</v>
       </c>
       <c r="H1507" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1508" spans="1:8" x14ac:dyDescent="0.4">
@@ -40164,7 +40174,7 @@
         <v>10</v>
       </c>
       <c r="H1511" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1512" spans="1:8" x14ac:dyDescent="0.4">
@@ -40216,7 +40226,7 @@
         <v>46</v>
       </c>
       <c r="H1513" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1514" spans="1:8" x14ac:dyDescent="0.4">
@@ -40372,7 +40382,7 @@
         <v>46</v>
       </c>
       <c r="H1519" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1520" spans="1:8" x14ac:dyDescent="0.4">
@@ -40424,7 +40434,7 @@
         <v>10</v>
       </c>
       <c r="H1521" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1522" spans="1:8" x14ac:dyDescent="0.4">
@@ -40476,7 +40486,7 @@
         <v>10</v>
       </c>
       <c r="H1523" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1524" spans="1:8" x14ac:dyDescent="0.4">
@@ -40554,7 +40564,7 @@
         <v>10</v>
       </c>
       <c r="H1526" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1527" spans="1:8" x14ac:dyDescent="0.4">
@@ -40918,7 +40928,7 @@
         <v>10</v>
       </c>
       <c r="H1540" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1541" spans="1:8" x14ac:dyDescent="0.4">
@@ -41022,7 +41032,7 @@
         <v>10</v>
       </c>
       <c r="H1544" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1545" spans="1:8" x14ac:dyDescent="0.4">
@@ -41048,7 +41058,7 @@
         <v>12</v>
       </c>
       <c r="H1545" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1546" spans="1:8" x14ac:dyDescent="0.4">
@@ -41100,7 +41110,7 @@
         <v>10</v>
       </c>
       <c r="H1547" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1548" spans="1:8" x14ac:dyDescent="0.4">
@@ -41126,7 +41136,7 @@
         <v>10</v>
       </c>
       <c r="H1548" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1549" spans="1:8" x14ac:dyDescent="0.4">
@@ -41256,7 +41266,7 @@
         <v>10</v>
       </c>
       <c r="H1553" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1554" spans="1:8" x14ac:dyDescent="0.4">
@@ -41620,7 +41630,7 @@
         <v>10</v>
       </c>
       <c r="H1567" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1568" spans="1:8" x14ac:dyDescent="0.4">
@@ -41698,7 +41708,7 @@
         <v>10</v>
       </c>
       <c r="H1570" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1571" spans="1:8" x14ac:dyDescent="0.4">
@@ -41724,7 +41734,7 @@
         <v>10</v>
       </c>
       <c r="H1571" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1572" spans="1:8" x14ac:dyDescent="0.4">
@@ -41750,7 +41760,7 @@
         <v>13</v>
       </c>
       <c r="H1572" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1573" spans="1:8" x14ac:dyDescent="0.4">
@@ -41802,7 +41812,7 @@
         <v>10</v>
       </c>
       <c r="H1574" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1575" spans="1:8" x14ac:dyDescent="0.4">
@@ -41828,7 +41838,7 @@
         <v>10</v>
       </c>
       <c r="H1575" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1576" spans="1:8" x14ac:dyDescent="0.4">
@@ -41854,7 +41864,7 @@
         <v>10</v>
       </c>
       <c r="H1576" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1577" spans="1:8" x14ac:dyDescent="0.4">
@@ -41880,7 +41890,7 @@
         <v>10</v>
       </c>
       <c r="H1577" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1578" spans="1:8" x14ac:dyDescent="0.4">
@@ -41906,7 +41916,7 @@
         <v>10</v>
       </c>
       <c r="H1578" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1579" spans="1:8" x14ac:dyDescent="0.4">
@@ -41932,7 +41942,7 @@
         <v>10</v>
       </c>
       <c r="H1579" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1580" spans="1:8" x14ac:dyDescent="0.4">
@@ -41958,7 +41968,7 @@
         <v>10</v>
       </c>
       <c r="H1580" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1581" spans="1:8" x14ac:dyDescent="0.4">
@@ -41984,7 +41994,7 @@
         <v>46</v>
       </c>
       <c r="H1581" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1582" spans="1:8" x14ac:dyDescent="0.4">
@@ -42010,7 +42020,7 @@
         <v>11</v>
       </c>
       <c r="H1582" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1583" spans="1:8" x14ac:dyDescent="0.4">
@@ -42036,7 +42046,7 @@
         <v>46</v>
       </c>
       <c r="H1583" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1584" spans="1:8" x14ac:dyDescent="0.4">
@@ -42114,7 +42124,7 @@
         <v>10</v>
       </c>
       <c r="H1586" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1587" spans="1:8" x14ac:dyDescent="0.4">
@@ -42166,7 +42176,7 @@
         <v>10</v>
       </c>
       <c r="H1588" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1589" spans="1:8" x14ac:dyDescent="0.4">
@@ -42348,7 +42358,7 @@
         <v>10</v>
       </c>
       <c r="H1595" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1596" spans="1:8" x14ac:dyDescent="0.4">
@@ -42400,7 +42410,7 @@
         <v>10</v>
       </c>
       <c r="H1597" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1598" spans="1:8" x14ac:dyDescent="0.4">
@@ -42452,11 +42462,739 @@
         <v>10</v>
       </c>
       <c r="H1599" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1600">
+        <v>1598</v>
+      </c>
+      <c r="B1600" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1600">
+        <v>70</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1600" s="1">
+        <v>43949</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1600" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1601">
+        <v>1599</v>
+      </c>
+      <c r="B1601" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1601">
+        <v>40</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1601" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1601" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1602">
+        <v>1600</v>
+      </c>
+      <c r="B1602" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1602">
+        <v>70</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1602" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G1602" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1602" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1603">
+        <v>1601</v>
+      </c>
+      <c r="B1603" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1603">
+        <v>60</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1603" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1603" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1603" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1604">
+        <v>1602</v>
+      </c>
+      <c r="B1604" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1604">
+        <v>60</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1604" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1604" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1604" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1605">
+        <v>1603</v>
+      </c>
+      <c r="B1605" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1605">
+        <v>50</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1605" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1605" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1605" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1606">
+        <v>1604</v>
+      </c>
+      <c r="B1606" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1606">
+        <v>40</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1606" s="1">
+        <v>43948</v>
+      </c>
+      <c r="G1606" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1606" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1607">
+        <v>1605</v>
+      </c>
+      <c r="B1607" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1607">
+        <v>50</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1607" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1607" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1607" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1608">
+        <v>1606</v>
+      </c>
+      <c r="B1608" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1608">
+        <v>30</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1608" s="1">
+        <v>43948</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1608" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1609">
+        <v>1607</v>
+      </c>
+      <c r="B1609" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1609">
+        <v>30</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1609" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1609" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1609" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1610">
+        <v>1608</v>
+      </c>
+      <c r="B1610" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1610">
+        <v>80</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1610" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1610" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1610" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1611">
+        <v>1609</v>
+      </c>
+      <c r="B1611" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1611">
+        <v>90</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1611" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G1611" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1611" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1612">
+        <v>1610</v>
+      </c>
+      <c r="B1612" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1612">
+        <v>20</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1612" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1612" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1613">
+        <v>1611</v>
+      </c>
+      <c r="B1613" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1613">
+        <v>80</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1613" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1613" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1613" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1614">
+        <v>1612</v>
+      </c>
+      <c r="B1614" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1614">
+        <v>80</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1614" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1614" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1614" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1615">
+        <v>1613</v>
+      </c>
+      <c r="B1615" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1615">
+        <v>80</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1615" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1615" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1615" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1616">
+        <v>1614</v>
+      </c>
+      <c r="B1616" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1616">
+        <v>80</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1616" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1616" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1616" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1617">
+        <v>1615</v>
+      </c>
+      <c r="B1617" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1617">
+        <v>50</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1617" s="1">
+        <v>43948</v>
+      </c>
+      <c r="G1617" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1617" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1618">
+        <v>1616</v>
+      </c>
+      <c r="B1618" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1618">
+        <v>50</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1618" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1618" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1618" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1619">
+        <v>1617</v>
+      </c>
+      <c r="B1619" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1619">
+        <v>60</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1619" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1619" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1619" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1620">
+        <v>1618</v>
+      </c>
+      <c r="B1620" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1620">
+        <v>80</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1620" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1620" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1620" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1621">
+        <v>1619</v>
+      </c>
+      <c r="B1621" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1621">
+        <v>20</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1621" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1621" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1621" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1622">
+        <v>1620</v>
+      </c>
+      <c r="B1622" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1622">
+        <v>70</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1622" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G1622" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1622" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1623">
+        <v>1621</v>
+      </c>
+      <c r="B1623" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1623">
+        <v>40</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1623" s="1">
+        <v>43942</v>
+      </c>
+      <c r="G1623" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1623" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1624">
+        <v>1622</v>
+      </c>
+      <c r="B1624" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1624">
+        <v>70</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1624" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1624" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1624" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1625">
+        <v>1623</v>
+      </c>
+      <c r="B1625" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1625">
+        <v>30</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1625" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1625" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1625" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1626">
+        <v>1624</v>
+      </c>
+      <c r="B1626" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1626">
+        <v>70</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1626" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G1626" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1626" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1627">
+        <v>1625</v>
+      </c>
+      <c r="B1627" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C1627">
+        <v>70</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1627" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1627" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1627" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1599"/>
+  <autoFilter ref="A2:H1627"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42465,7 +43203,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42476,7 +43214,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -45841,26 +46579,61 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B98">
+        <v>639</v>
+      </c>
+      <c r="C98">
+        <v>28</v>
+      </c>
+      <c r="D98">
+        <v>1625</v>
+      </c>
+      <c r="E98">
+        <v>944</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98">
+        <v>640</v>
+      </c>
+      <c r="H98">
+        <v>17</v>
+      </c>
+      <c r="I98">
+        <v>640</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B98">
-        <v>15410</v>
-      </c>
-      <c r="C98">
-        <v>1597</v>
-      </c>
-      <c r="F98">
-        <v>623</v>
-      </c>
-      <c r="H98">
-        <v>623</v>
-      </c>
-      <c r="J98">
-        <v>39</v>
-      </c>
-      <c r="K98">
-        <v>845</v>
+      <c r="B99">
+        <v>16049</v>
+      </c>
+      <c r="C99">
+        <v>1625</v>
+      </c>
+      <c r="F99">
+        <v>640</v>
+      </c>
+      <c r="H99">
+        <v>640</v>
+      </c>
+      <c r="J99">
+        <v>41</v>
+      </c>
+      <c r="K99">
+        <v>854</v>
       </c>
     </row>
   </sheetData>
